--- a/docs/LTA1_C/LTA1_C_20.08.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_20.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731790696.3993392</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731790696.7181096</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790696.3993392.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790696.7181096.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>268.08</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>267.34</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.7400000000000091</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731790697.186841</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731790698.834853</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790697.186841.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790698.834853.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>266.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>266.3</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731790699.5131414</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731790702.7097578</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790699.5131414.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790702.7097578.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>267.67</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>267.83</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.1599999999999682</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731790702.937567</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731790704.017195</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790702.937567.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790704.017195.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>267.03</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>268.23</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731790704.3630455</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731790704.5535636</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790704.3630455.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790704.5535636.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>268.08</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>267.34</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.7400000000000091</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731790704.8218179</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731790706.025597</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790704.8218179.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790706.025597.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>266.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>266.3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731790706.5352612</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731790708.8774388</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790706.5352612.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790708.8774388.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>267.67</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>267.83</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1599999999999682</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731790709.0290291</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731790709.733148</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790709.0290291.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790709.733148.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>267.03</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>268.23</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731790709.9845467</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731790710.4626222</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790709.9845467.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790710.4626222.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>268.4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>267.36</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.039999999999964</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731790710.8341599</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731790712.0894706</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790710.8341599.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790712.0894706.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>266.72</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>266.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.5200000000000387</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731790713.3575714</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731790716.9565508</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790713.3575714.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790716.9565508.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>267.79</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>267.9</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.1099999999999568</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731790717.2031808</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731790718.2210755</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790717.2031808.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790718.2210755.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>267.27</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>268.3</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.03000000000003</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731790718.5493653</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731790718.802586</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790718.5493653.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790718.802586.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>126.68</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>126.31</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731790718.921219</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731790719.1938465</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790718.921219.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790719.1938465.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>126.65</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>126.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3500000000000085</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731790719.2227688</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731790719.375432</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790719.2227688.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790719.375432.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>126.05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>126.37</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.3200000000000074</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731790719.5502236</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731790720.1106536</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790719.5502236.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790720.1106536.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>126.07</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>126.38</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731790720.4643826</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731790720.6435778</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790720.4643826.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790720.6435778.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>126.65</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>126.48</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731790721.138138</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731790722.0709674</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790721.138138.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790722.0709674.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>126.98</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>126.71</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2700000000000102</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731790722.7709537</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731790723.9409163</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790722.7709537.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790723.9409163.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.3</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>126.82</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.480000000000004</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1527,95 +1657,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731790724.233043</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731790724.233043.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731790724.233043.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>126.46</v>
       </c>
-      <c r="J22" t="n">
-        <v>126.46</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>125.95</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.5099999999999909</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731790726.5444493</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731790726.827065</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790726.5444493.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790726.827065.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6145</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6125.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>19.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731790727.192612</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731790728.9091082</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790727.192612.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790728.9091082.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6111</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6106</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-5</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731790730.375677</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731790734.713194</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790730.375677.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790734.713194.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6144</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6187.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-43.5</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.7100000000000001</v>
       </c>
     </row>
@@ -1727,95 +1881,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731790734.9656343</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731790734.9656343.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731790734.9656343.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6218.5</v>
       </c>
-      <c r="J26" t="n">
-        <v>6218.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>6237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731790735.412998</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731790735.7173693</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790735.412998.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790735.7173693.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>485.95</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>484</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.949999999999989</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731790736.0983915</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731790737.7504585</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790736.0983915.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790737.7504585.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>482.55</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>483.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.8499999999999659</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731790738.0953376</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731790738.2137318</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790738.0953376.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790738.2137318.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>485.6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>482.95</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2.650000000000034</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731790738.5502796</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731790742.0449479</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790738.5502796.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790742.0449479.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>485.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>485.75</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1979,95 +2163,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731790742.4180512</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731790742.4180512.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731790742.4180512.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>485.65</v>
       </c>
-      <c r="J31" t="n">
-        <v>485.65</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>486.55</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9000000000000341</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731790742.9161513</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731790744.615491</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790742.9161513.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790744.615491.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>213.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>212.3</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731790745.8827236</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731790747.2831879</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790745.8827236.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790747.2831879.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>214.01</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>212.65</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.359999999999985</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731790748.6182554</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731790749.7891927</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790748.6182554.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790749.7891927.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>212.14</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>212.74</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731790751.4878843</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731790751.8582346</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790751.4878843.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790751.8582346.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1013.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1018.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>4.400000000000091</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731790753.663137</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731790755.637355</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790753.663137.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790755.637355.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1021.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1023.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2283,95 +2503,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731790756.6854906</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731790756.6854906.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731790756.6854906.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1021</v>
       </c>
-      <c r="J37" t="n">
-        <v>1021</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1021.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731790758.6529787</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731790759.789022</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790758.6529787.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790759.789022.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>12.147</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>12.147</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731790760.0226073</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731790765.781209</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790760.0226073.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790765.781209.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>12.166</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>12.211</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.04499999999999993</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731790766.2510023</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731790768.5757902</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790766.2510023.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790768.5757902.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>125.5</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>125.26</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.2399999999999949</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731790770.6580586</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731790771.1004403</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790770.6580586.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790771.1004403.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>125.36</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>124.86</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.5</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2535,95 +2785,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731790771.6857185</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731790771.6857185.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731790771.6857185.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>124.68</v>
       </c>
-      <c r="J42" t="n">
-        <v>124.68</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>124.58</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.1000000000000085</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731790774.0621638</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731790774.5751245</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790774.0621638.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790774.5751245.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>158.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>157.3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -2631,51 +2893,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731790774.9751656</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731790776.4889908</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790774.9751656.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790776.4889908.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>156.48</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>157.36</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.8800000000000239</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2683,51 +2951,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731790777.1526291</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731790780.4426281</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790777.1526291.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790780.4426281.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>158.44</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>157.68</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.7599999999999909</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2735,95 +3009,107 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731790780.7736807</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731790780.7736807.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731790780.7736807.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>157.44</v>
       </c>
-      <c r="J46" t="n">
-        <v>157.44</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>157.26</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.1800000000000068</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731790781.9299822</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731790782.5252638</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790781.9299822.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790782.5252638.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>48.355</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>47.93</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.4249999999999972</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -2831,51 +3117,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731790782.647945</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731790785.521169</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790782.647945.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790785.521169.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>47.7</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>47.815</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1149999999999949</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2883,95 +3175,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731790788.0134668</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731790788.0134668.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731790788.0134668.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>47.355</v>
       </c>
-      <c r="J49" t="n">
-        <v>47.355</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>47.275</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.07999999999999829</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731790789.6992722</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731790790.3638134</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790789.6992722.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790790.3638134.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1346.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1338.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>7.799999999999955</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -2979,51 +3283,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731790790.9460297</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731790791.665655</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790790.9460297.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790791.665655.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1332.2</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1339</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>6.799999999999955</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -3031,51 +3341,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731790792.2241683</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731790795.4898114</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790792.2241683.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790795.4898114.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1343.8</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1345.4</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-1.600000000000136</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3083,95 +3399,107 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731790796.4970348</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731790796.4970348.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731790796.4970348.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1345.2</v>
       </c>
-      <c r="J53" t="n">
-        <v>1345.2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1342.4</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-2.799999999999955</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731790798.2130196</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731790801.4693305</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790798.2130196.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790801.4693305.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>56.88</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>56.54</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.3400000000000034</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731790802.7728736</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731790803.5408213</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790802.7728736.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790803.5408213.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>56.51</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>56.2</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.3099999999999952</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -3231,95 +3565,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731790804.8905265</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731790804.8905265.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731790804.8905265.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>56.13</v>
       </c>
-      <c r="J56" t="n">
-        <v>56.13</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>55.92</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.2100000000000009</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731790806.5409243</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731790807.227054</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790806.5409243.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790807.227054.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>99.54000000000001</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>98.77</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.7700000000000102</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -3327,51 +3673,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731790808.1689084</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731790813.0622127</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790808.1689084.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790813.0622127.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>99.39</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>99.83</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -3379,51 +3731,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731790813.2882264</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731790814.3470454</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790813.2882264.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790814.3470454.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>99.66</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>99.94</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3431,51 +3789,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731790815.0390983</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731790816.4288108</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790815.0390983.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790816.4288108.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>51.66</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>52.32</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.6600000000000037</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>1.28</v>
       </c>
     </row>
@@ -3483,51 +3847,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731790816.5394297</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731790820.6124725</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790816.5394297.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790820.6124725.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>52.48</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>53.41</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.9299999999999997</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-1.77</v>
       </c>
     </row>
@@ -3535,51 +3905,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731790820.7808247</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731790821.0366213</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790820.7808247.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790821.0366213.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>53.31</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>53.53</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731790821.3769674</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731790821.4894884</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790821.3769674.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790821.4894884.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>53.31</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>53.54</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -3639,95 +4021,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731790821.6334434</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731790821.6334434.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731790821.6334434.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>53.79</v>
       </c>
-      <c r="J64" t="n">
-        <v>53.79</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>53.89</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731790822.5316198</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731790824.3735847</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790822.5316198.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790824.3735847.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>148.28</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>150.48</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>2.199999999999989</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>1.48</v>
       </c>
     </row>
@@ -3735,51 +4129,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731790824.9572535</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731790825.0533917</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790824.9572535.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790825.0533917.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>151.46</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>149.9</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1.560000000000002</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>1.03</v>
       </c>
     </row>
@@ -3787,51 +4187,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731790827.700968</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731790827.94641</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790827.700968.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790827.94641.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>151.04</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>150.4</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.6399999999999864</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3839,51 +4245,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731790828.7274067</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731790830.5553586</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790828.7274067.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790830.5553586.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.3009</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.2988</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.002099999999999991</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.7000000000000001</v>
       </c>
     </row>
@@ -3891,95 +4303,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731790831.5416057</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731790831.5416057.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731790831.5416057.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.3016</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.3016</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.3025</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.0009000000000000119</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731790835.0772128</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731790835.4602318</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790835.0772128.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790835.4602318.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>19.4</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>19.246</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1539999999999999</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -3987,51 +4411,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731790835.6508782</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731790837.7955904</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790835.6508782.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790837.7955904.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>19.2</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>19.278</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.0779999999999994</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -4039,51 +4469,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731790838.005025</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731790841.0920806</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790838.005025.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790841.0920806.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>19.392</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>19.311</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.08099999999999952</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -4091,51 +4527,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731790841.287287</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731790842.1255605</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790841.287287.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790842.1255605.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>19.423</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>19.345</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.0779999999999994</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -4143,51 +4585,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731790842.254835</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731790843.3354297</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790842.254835.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790843.3354297.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>19.298</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>19.373</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.07500000000000284</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -4195,51 +4643,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731790843.838483</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731790844.3228643</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790843.838483.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790844.3228643.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>669.05</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>665.1</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>3.949999999999932</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -4247,51 +4701,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731790844.4524083</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731790846.2291565</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790844.4524083.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790846.2291565.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>663.25</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>662.6</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.6499999999999773</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4299,51 +4759,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731790846.8461108</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731790848.8425512</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790846.8461108.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790848.8425512.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>666.95</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>662.4</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>4.550000000000068</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -4351,95 +4817,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731790849.080462</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731790849.080462.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731790849.080462.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>661.6</v>
       </c>
-      <c r="J78" t="n">
-        <v>661.6</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>659.5</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-2.100000000000023</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731790850.3566136</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731790850.5856514</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790850.3566136.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790850.5856514.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>142.37</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>141.86</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -4447,51 +4925,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731790850.6587715</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731790853.0259645</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790850.6587715.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790853.0259645.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>140.92</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>141.12</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4499,51 +4983,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731790854.1651084</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731790854.7556336</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790854.1651084.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790854.7556336.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>141.3</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>140.01</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>1.29000000000002</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -4551,44 +5041,50 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731790855.8801858</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731790855.8801858.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731790855.8801858.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>139.55</v>
       </c>
-      <c r="J82" t="n">
-        <v>139.55</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>137.94</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-1.610000000000014</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-1.15</v>
       </c>
     </row>
   </sheetData>
@@ -4649,19 +5145,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.270000000000039</v>
+        <v>1.760000000000048</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2837500000000048</v>
+        <v>0.220000000000006</v>
       </c>
       <c r="E2" t="n">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="F2" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -4715,19 +5211,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03599999999999994</v>
+        <v>0.01599999999999966</v>
       </c>
       <c r="E5" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -4737,19 +5233,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.099999999999966</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.019999999999993</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -4759,19 +5255,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.539999999999992</v>
+        <v>2.359999999999985</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.634999999999998</v>
+        <v>0.5899999999999963</v>
       </c>
       <c r="E7" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
@@ -4781,19 +5277,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.850000000000023</v>
+        <v>5.75</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.962500000000006</v>
+        <v>1.4375</v>
       </c>
       <c r="E8" t="n">
-        <v>1.17</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
@@ -4825,19 +5321,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.000000000000028</v>
+        <v>0.3900000000000148</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5000000000000071</v>
+        <v>0.09750000000000369</v>
       </c>
       <c r="E10" t="n">
-        <v>1.41</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.35</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -4847,19 +5343,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29</v>
+        <v>-47.5</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.25</v>
+        <v>-11.875</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4700000000000001</v>
+        <v>-0.77</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.12</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="12">
@@ -4869,19 +5365,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.99999999999977</v>
+        <v>10.19999999999982</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>3.249999999999943</v>
+        <v>2.549999999999955</v>
       </c>
       <c r="E12" t="n">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="F12" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13">
@@ -4891,19 +5387,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03000000000000824</v>
+        <v>-0.2400000000000091</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01000000000000275</v>
+        <v>-0.08000000000000303</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05000000000000004</v>
+        <v>-0.42</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="14">
@@ -4935,19 +5431,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.800000000000182</v>
+        <v>2.400000000000205</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6000000000000606</v>
+        <v>0.8000000000000682</v>
       </c>
       <c r="E15" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
@@ -4957,19 +5453,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.539999999999992</v>
+        <v>0.4599999999999937</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1799999999999974</v>
+        <v>0.1533333333333312</v>
       </c>
       <c r="E16" t="n">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="F16" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="17">
@@ -4979,19 +5475,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2600000000000051</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08666666666666838</v>
+        <v>0.0533333333333322</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18">
@@ -5045,19 +5541,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002099999999999991</v>
+        <v>-0.003000000000000003</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.001049999999999995</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.35</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21">
